--- a/Wk2/TimeSheet_Group06_Wk2.xlsx
+++ b/Wk2/TimeSheet_Group06_Wk2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takumi_iizuka/Desktop/CITS3200_06/Wk2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takumi_iizuka/Desktop/CITS3006_Project/CITS3200_06/Wk2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249ABDB-775C-8849-AFA5-751797ED4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65BFB6-746B-7C40-BE88-789071E15DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="7980" windowWidth="29960" windowHeight="20160" activeTab="3" xr2:uid="{62AB6E9C-1DC3-774E-B214-74EF319C3060}"/>
+    <workbookView xWindow="6040" yWindow="3220" windowWidth="29960" windowHeight="20160" activeTab="3" xr2:uid="{62AB6E9C-1DC3-774E-B214-74EF319C3060}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -1124,11 +1124,67 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,65 +1196,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,16 +1233,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1244,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,17 +1270,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,100 +1838,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
     </row>
     <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
     </row>
     <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -1952,83 +1952,83 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="54"/>
@@ -2046,187 +2046,187 @@
       <c r="M12" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="53"/>
@@ -2244,208 +2244,208 @@
       <c r="M25" s="53"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
@@ -2463,38 +2463,38 @@
       <c r="M39" s="60"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
@@ -2517,106 +2517,106 @@
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="56"/>
@@ -2664,81 +2664,100 @@
       <c r="M53" s="59"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M16"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="A1:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A8:M11"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A54:P57"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A22:M22"/>
@@ -2755,25 +2774,6 @@
     <mergeCell ref="A47:M47"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A1:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A8:M11"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M16"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A31:M31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2806,11 +2806,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2825,11 +2825,11 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -2846,11 +2846,11 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="12"/>
@@ -2867,11 +2867,11 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2888,11 +2888,11 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
@@ -2909,11 +2909,11 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="5"/>
@@ -2930,11 +2930,11 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
@@ -2970,50 +2970,50 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="101"/>
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="93"/>
       <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="90" t="s">
@@ -3061,9 +3061,9 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="15" t="s">
         <v>78</v>
       </c>
@@ -3744,6 +3744,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:T10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:C1"/>
@@ -3753,20 +3767,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:T10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3805,30 +3805,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:47" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:47" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:47" ht="14" x14ac:dyDescent="0.15">
@@ -3841,139 +3841,139 @@
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:47" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A13" s="111" t="str">
+      <c r="A13" s="113" t="str">
         <f>IF(AND(COUNT(D17:D68) &gt;0,(D69&lt;&gt;100)),"Value does not sum to $100","Value is OK")</f>
         <v>Value is OK</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
     </row>
     <row r="14" spans="1:47" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
+      <c r="AK14" s="111"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="111"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="112"/>
       <c r="AS14" s="26"/>
       <c r="AT14" s="26"/>
       <c r="AU14" s="26" t="s">
@@ -3981,85 +3981,85 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="117"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="114" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="92" t="s">
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="114" t="s">
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114" t="s">
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114" t="s">
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114" t="s">
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114" t="s">
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="114"/>
-      <c r="AK15" s="114" t="s">
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="AL15" s="114"/>
-      <c r="AM15" s="114"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114" t="s">
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="104" t="s">
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AT15" s="104" t="s">
+      <c r="AT15" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="AU15" s="104" t="s">
+      <c r="AU15" s="107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:47" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="117"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="30" t="s">
         <v>107</v>
       </c>
@@ -4180,9 +4180,9 @@
       <c r="AR16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="105"/>
+      <c r="AS16" s="109"/>
+      <c r="AT16" s="109"/>
+      <c r="AU16" s="108"/>
     </row>
     <row r="17" spans="1:47" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
@@ -6908,21 +6908,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="AU15:AU16"/>
     <mergeCell ref="AS15:AS16"/>
     <mergeCell ref="AT15:AT16"/>
@@ -6938,6 +6923,21 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:P15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A13">
@@ -6962,7 +6962,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6988,7 +6988,7 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="76" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="48"/>
@@ -7005,7 +7005,7 @@
       <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -7020,7 +7020,7 @@
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -7033,18 +7033,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
@@ -7110,7 +7110,9 @@
       <c r="A10" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
       <c r="C10" s="21"/>
       <c r="D10" s="18"/>
       <c r="E10" s="21"/>
@@ -7122,7 +7124,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="35">
         <f t="shared" ref="L10:L15" si="0">SUM(B10:K10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -7150,7 +7152,9 @@
       <c r="A12" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
       <c r="C12" s="21"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21"/>
@@ -7162,7 +7166,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
